--- a/ExplorerFund/NetValue/新征程基金记录9月.xlsx
+++ b/ExplorerFund/NetValue/新征程基金记录9月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="19875" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,11 +66,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1160,7 @@
         <v>42961</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B8" si="0">J4+K4+L4+M4+N4</f>
+        <f t="shared" ref="B4:B10" si="0">J4+K4+L4+M4+N4</f>
         <v>4654237</v>
       </c>
       <c r="C4" s="3">
@@ -1258,7 +1258,7 @@
         <v>4672762</v>
       </c>
       <c r="C6" s="3">
-        <f>(B6/B5-1)*100</f>
+        <f t="shared" ref="C6:C9" si="1">(B6/B5-1)*100</f>
         <v>0.614483711379976</v>
       </c>
       <c r="D6" s="2">
@@ -1266,7 +1266,7 @@
         <v>443417.914670009</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ref="E6:E8" si="1">B6-D6-F6</f>
+        <f t="shared" ref="E6:E10" si="2">B6-D6-F6</f>
         <v>1616963.08532999</v>
       </c>
       <c r="F6" s="2">
@@ -1306,7 +1306,7 @@
         <v>4724717</v>
       </c>
       <c r="C7" s="3">
-        <f>(B7/B6-1)*100</f>
+        <f t="shared" si="1"/>
         <v>1.11186916859878</v>
       </c>
       <c r="D7" s="2">
@@ -1314,7 +1314,7 @@
         <v>448348.032681886</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1643671.46679069</v>
       </c>
       <c r="F7" s="2">
@@ -1322,7 +1322,7 @@
         <v>2632697.50052742</v>
       </c>
       <c r="G7" s="3">
-        <f>(C7/100+1)*G6</f>
+        <f t="shared" ref="G7:G10" si="3">(C7/100+1)*G6</f>
         <v>1.0151429440789</v>
       </c>
       <c r="H7" s="3">
@@ -1330,7 +1330,7 @@
         <v>1.04360093129568</v>
       </c>
       <c r="I7" s="3">
-        <f>I6*(C7*0.7/100+1)</f>
+        <f t="shared" ref="I7:I10" si="4">I6*(C7*0.7/100+1)</f>
         <v>1.01058472115421</v>
       </c>
       <c r="J7" s="2">
@@ -1354,7 +1354,7 @@
         <v>42986</v>
       </c>
       <c r="B8" s="2">
-        <f>J8+K8+L8+M8+N8</f>
+        <f t="shared" si="0"/>
         <v>4733439</v>
       </c>
       <c r="C8" s="8">
@@ -1365,12 +1365,12 @@
         <v>449174.8449</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>1648164.6828624</v>
+        <f t="shared" si="2"/>
+        <v>1648164.68286239</v>
       </c>
       <c r="F8" s="2">
         <f>I8*F1</f>
-        <v>2636099.4722376</v>
+        <v>2636099.47223761</v>
       </c>
       <c r="G8" s="3">
         <v>1.017015</v>
@@ -1380,7 +1380,7 @@
         <v>1.04645376689676</v>
       </c>
       <c r="I8" s="3">
-        <f>I7*(C8*0.7/100+1)</f>
+        <f t="shared" si="4"/>
         <v>1.01189059873089</v>
       </c>
       <c r="J8" s="10">
@@ -1399,14 +1399,109 @@
         <v>201384</v>
       </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1" spans="1:3">
+    <row r="9" ht="16.5" customHeight="1" spans="1:14">
       <c r="A9" s="6">
-        <v>42979</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>43000</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>4742898</v>
+      </c>
+      <c r="C9" s="3">
+        <f>(B9/B8-1)*100</f>
+        <v>0.19983356709572</v>
+      </c>
+      <c r="D9" s="2">
+        <f>G9*D1</f>
+        <v>450072.44701506</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="2"/>
+        <v>1653038.61262204</v>
+      </c>
+      <c r="F9" s="2">
+        <f>I9*F1</f>
+        <v>2639786.9403629</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0190473373524</v>
+      </c>
+      <c r="H9" s="3">
+        <f>E9/E1</f>
+        <v>1.04954832547431</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="4"/>
+        <v>1.01330606668587</v>
+      </c>
+      <c r="J9" s="2">
+        <v>910526</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1113398</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1194913</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1317655</v>
+      </c>
+      <c r="N9" s="2">
+        <v>206406</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="3:3">
-      <c r="C10" s="3"/>
+    <row r="10" ht="16.5" customHeight="1" spans="1:14">
+      <c r="A10" s="6">
+        <v>43007</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>4773357</v>
+      </c>
+      <c r="C10" s="3">
+        <f>(B10/B9-1)*100</f>
+        <v>0.64220229910068</v>
+      </c>
+      <c r="D10" s="2">
+        <f>G10*D1</f>
+        <v>452962.82261741</v>
+      </c>
+      <c r="E10" s="7">
+        <f>B10-D10-F10</f>
+        <v>1668740.29632403</v>
+      </c>
+      <c r="F10" s="2">
+        <f>I10*F1</f>
+        <v>2651653.88105856</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0255916827818</v>
+      </c>
+      <c r="H10" s="3">
+        <f>E10/E1</f>
+        <v>1.0595176484597</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0178612990859</v>
+      </c>
+      <c r="J10" s="2">
+        <v>912676</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1210836</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1131574</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1314090</v>
+      </c>
+      <c r="N10" s="2">
+        <v>204181</v>
+      </c>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="3:3">
       <c r="C11" s="9"/>
